--- a/static/web/excel/Data_Chuc_Vu.xlsx
+++ b/static/web/excel/Data_Chuc_Vu.xlsx
@@ -434,7 +434,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
